--- a/Análise questionário/Análise Objetivos e Atividades ISO 29110 - respostas DataSerra.xlsx
+++ b/Análise questionário/Análise Objetivos e Atividades ISO 29110 - respostas DataSerra.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Meus Documentos\GitHub\Mestrado\Análise questionário\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26900" windowHeight="13800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -29,13 +24,13 @@
     <sheet name="Avaliação SI" sheetId="18" r:id="rId15"/>
     <sheet name="Exemplo" sheetId="11" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +42,7 @@
     <author>Gladistone Afonso</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +144,7 @@
     <author>Gladistone Afonso</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="644">
   <si>
     <t>Gerência de projetos</t>
   </si>
@@ -4052,15 +4047,198 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem levar em consideração a especificação de requisitos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O analista e projetista de software decompoem o software em subsistemas e componentes de software mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as interfaces internas e externas não são definidas</t>
+    </r>
+  </si>
+  <si>
+    <t>Não existe um processo formal para gerar o projeto de software ou a própria equipe fica responsável (mas não obrigada) a gerar a arquitetura</t>
+  </si>
+  <si>
+    <t>Não é gerada a arquitetura de software</t>
+  </si>
+  <si>
+    <t>Como é gerado o projeto de interface de usuário?</t>
+  </si>
+  <si>
+    <t>O analista e projetista de software analisam as especificações de requisitos e a aparência e o comportamento do software são descritos em detalhes de forma a prever os recursos necessários para sua implementação</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O analista e projetista de software descrevem a aparência e o comportamento do software em detalhes de forma a prever os recursos necessários para sua implementação, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem analisar as especificações de requisitos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O analista e projetista de software descrevem a aparência e o comportamento do software em detalhes mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não há previsão dos recursos necessários para sua implementação e não há análise das especificações de requisitos</t>
+    </r>
+  </si>
+  <si>
+    <t>Não existe um processo formal para gerar o projeto de interface de usuário ou a própria equipe fica responsável (mas não obrigada) a gerar o projeto</t>
+  </si>
+  <si>
+    <t>Não é gerado o projeto de interface de usuário</t>
+  </si>
+  <si>
+    <t>SI.3.1.Q1</t>
+  </si>
+  <si>
+    <t>SI.3.1 Assign Tasks to the Work Team members related  to  their  role  according  to  the  current Project Plan.</t>
+  </si>
+  <si>
+    <t>SI.3.3.Q1</t>
+  </si>
+  <si>
+    <t>SI.3.3.Q2</t>
+  </si>
+  <si>
+    <t>SI.3.3 Document or update the Software Design. Analyze  the  Requirements  Specification to generate  the  architectural  design,  its arrangement  in  subsystems  and  Software Components defining the internal and external interfaces.  Describe  in  detail,  the  appearance and the behaviour of the interface, based on the Requirements  Specificationin a way that Resourcesfor its implementation can be foreseen. Provide  the  detail  of Software  Componentsand their  interfaces  to  allow  the  construction  in  an evident way. Generate or update the Traceability Record.</t>
+  </si>
+  <si>
+    <t>SI.3.4.Q1</t>
+  </si>
+  <si>
+    <t>Como é verificado o projeto de software?</t>
+  </si>
+  <si>
+    <t>Analista e projetistas verificam sua corretude e consistência com a especificação de requisitos, incluindo a rastreabilidade entre os elementos do projeto de software e os requisitos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analista e projetistas verificam sua corretude e consistência com a especificação de requisitos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mas não verificam ou não existe a rastreabilidade entre os elementos do projeto de software e os requisitos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analista e projetistas verificam sua corretude mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a especificação de requisitos não existe ou não é feita a verificação de consistência</t>
+    </r>
+  </si>
+  <si>
+    <t>Não existe um processo formal para verificar o projeto de software ou a própria equipe fica responsável (mas não obrigada) a fazer a verificação</t>
+  </si>
+  <si>
+    <t>O projeto de software não existe ou não é verificado</t>
+  </si>
+  <si>
+    <t>SI.3.4.Q2</t>
+  </si>
+  <si>
+    <t>Como são registrados os resultados da análise e verificação do projeto de software?</t>
+  </si>
+  <si>
+    <t>Resultados são registrados em um documento de resultado de validação e as correções necessárias são feitas até a verificação do projeto de software. Caso mudanças significativas sejam necessárias, uma requisição de mudanças é criada.</t>
+  </si>
+  <si>
+    <t>Correções necessárias são feitas até a verificação do projeto de software. Caso mudanças significativas sejam necessárias, uma requisição de mudanças é criada.</t>
+  </si>
+  <si>
+    <t>Correções necessárias são feitas até a verificação do projeto de software</t>
+  </si>
+  <si>
+    <t>O projeto de software não é verificado</t>
+  </si>
+  <si>
+    <t>O projeto de software não existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI.3.4 Verify and obtain approval of the Software Design. Verify  correctness  of  Software  Design documentation,  its  feasibility  and  consistency with  their Requirement  Specification.  Verify  that the  Traceability  Record contains the adequate relationships  between  requirements  and  the Software Design elements. The results found are documented  in  a  Verification  Results  and corrections  are  made  until  the  document  is approved  by  DES.  If  significant  changes  were needed, initiate a Change Request. </t>
+  </si>
+  <si>
+    <t>SI.3.5.Q1</t>
+  </si>
+  <si>
+    <t>SI.3.5 Establish or update Test Cases and Test Procedures for integration testing based on Requirements  Specification and  Software Design.</t>
+  </si>
+  <si>
+    <t>SI.3.6.Q1</t>
+  </si>
+  <si>
+    <t>O Analista verifica sua consistência com o projeto de software e a especificação de requisitos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Analista verifica sua consistência </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sem levar em consideração a especificação de requisitos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O analista e projetista de software decompoem o software em subsistemas e componentes de software mas </t>
+      <t xml:space="preserve"> com o projeto de software</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O Analista verifica sua consistência </t>
     </r>
     <r>
       <rPr>
@@ -4068,197 +4246,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>as interfaces internas e externas não são definidas</t>
-    </r>
-  </si>
-  <si>
-    <t>Não existe um processo formal para gerar o projeto de software ou a própria equipe fica responsável (mas não obrigada) a gerar a arquitetura</t>
-  </si>
-  <si>
-    <t>Não é gerada a arquitetura de software</t>
-  </si>
-  <si>
-    <t>Como é gerado o projeto de interface de usuário?</t>
-  </si>
-  <si>
-    <t>O analista e projetista de software analisam as especificações de requisitos e a aparência e o comportamento do software são descritos em detalhes de forma a prever os recursos necessários para sua implementação</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O analista e projetista de software descrevem a aparência e o comportamento do software em detalhes de forma a prever os recursos necessários para sua implementação, mas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sem analisar as especificações de requisitos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O analista e projetista de software descrevem a aparência e o comportamento do software em detalhes mas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não há previsão dos recursos necessários para sua implementação e não há análise das especificações de requisitos</t>
-    </r>
-  </si>
-  <si>
-    <t>Não existe um processo formal para gerar o projeto de interface de usuário ou a própria equipe fica responsável (mas não obrigada) a gerar o projeto</t>
-  </si>
-  <si>
-    <t>Não é gerado o projeto de interface de usuário</t>
-  </si>
-  <si>
-    <t>SI.3.1.Q1</t>
-  </si>
-  <si>
-    <t>SI.3.1 Assign Tasks to the Work Team members related  to  their  role  according  to  the  current Project Plan.</t>
-  </si>
-  <si>
-    <t>SI.3.3.Q1</t>
-  </si>
-  <si>
-    <t>SI.3.3.Q2</t>
-  </si>
-  <si>
-    <t>SI.3.3 Document or update the Software Design. Analyze  the  Requirements  Specification to generate  the  architectural  design,  its arrangement  in  subsystems  and  Software Components defining the internal and external interfaces.  Describe  in  detail,  the  appearance and the behaviour of the interface, based on the Requirements  Specificationin a way that Resourcesfor its implementation can be foreseen. Provide  the  detail  of Software  Componentsand their  interfaces  to  allow  the  construction  in  an evident way. Generate or update the Traceability Record.</t>
-  </si>
-  <si>
-    <t>SI.3.4.Q1</t>
-  </si>
-  <si>
-    <t>Como é verificado o projeto de software?</t>
-  </si>
-  <si>
-    <t>Analista e projetistas verificam sua corretude e consistência com a especificação de requisitos, incluindo a rastreabilidade entre os elementos do projeto de software e os requisitos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Analista e projetistas verificam sua corretude e consistência com a especificação de requisitos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mas não verificam ou não existe a rastreabilidade entre os elementos do projeto de software e os requisitos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Analista e projetistas verificam sua corretude mas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a especificação de requisitos não existe ou não é feita a verificação de consistência</t>
-    </r>
-  </si>
-  <si>
-    <t>Não existe um processo formal para verificar o projeto de software ou a própria equipe fica responsável (mas não obrigada) a fazer a verificação</t>
-  </si>
-  <si>
-    <t>O projeto de software não existe ou não é verificado</t>
-  </si>
-  <si>
-    <t>SI.3.4.Q2</t>
-  </si>
-  <si>
-    <t>Como são registrados os resultados da análise e verificação do projeto de software?</t>
-  </si>
-  <si>
-    <t>Resultados são registrados em um documento de resultado de validação e as correções necessárias são feitas até a verificação do projeto de software. Caso mudanças significativas sejam necessárias, uma requisição de mudanças é criada.</t>
-  </si>
-  <si>
-    <t>Correções necessárias são feitas até a verificação do projeto de software. Caso mudanças significativas sejam necessárias, uma requisição de mudanças é criada.</t>
-  </si>
-  <si>
-    <t>Correções necessárias são feitas até a verificação do projeto de software</t>
-  </si>
-  <si>
-    <t>O projeto de software não é verificado</t>
-  </si>
-  <si>
-    <t>O projeto de software não existe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI.3.4 Verify and obtain approval of the Software Design. Verify  correctness  of  Software  Design documentation,  its  feasibility  and  consistency with  their Requirement  Specification.  Verify  that the  Traceability  Record contains the adequate relationships  between  requirements  and  the Software Design elements. The results found are documented  in  a  Verification  Results  and corrections  are  made  until  the  document  is approved  by  DES.  If  significant  changes  were needed, initiate a Change Request. </t>
-  </si>
-  <si>
-    <t>SI.3.5.Q1</t>
-  </si>
-  <si>
-    <t>SI.3.5 Establish or update Test Cases and Test Procedures for integration testing based on Requirements  Specification and  Software Design.</t>
-  </si>
-  <si>
-    <t>SI.3.6.Q1</t>
-  </si>
-  <si>
-    <t>O Analista verifica sua consistência com o projeto de software e a especificação de requisitos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Analista verifica sua consistência </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>somente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> com o projeto de software</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Analista verifica sua consistência </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>somente</t>
@@ -4487,9 +4474,33 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> a partir do projeto de software</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Casos e procedimentos de testes de integração são gerados pelo projetista de software </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>somente</t>
     </r>
     <r>
@@ -4500,12 +4511,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a partir do projeto de software</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Casos e procedimentos de testes de integração são gerados pelo projetista de software </t>
+      <t xml:space="preserve"> a partir das especificação de requisitos</t>
+    </r>
+  </si>
+  <si>
+    <t>Casos e procedimentos de testes de integração são gerados pela própria equipe, com pouca ou nenhuma influência do projeto de software e requisitos</t>
+  </si>
+  <si>
+    <t>Os testes de integração de software não são gerados</t>
+  </si>
+  <si>
+    <t>Como são verificados e aprovados os planos de testes de integração de software?</t>
+  </si>
+  <si>
+    <t>Os testes de integração de software não são verificados</t>
+  </si>
+  <si>
+    <t>Como são registrados os resultados da análise e verificação dos planos de testes de integração?</t>
+  </si>
+  <si>
+    <t>Resultados são registrados em um documento de resultado de validação e as correções necessárias são feitas até a verificação do plano de testes de integração</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As correções necessárias são feitas até a verificação do plano de testes de integração mas </t>
     </r>
     <r>
       <rPr>
@@ -4513,10 +4542,68 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não há registro dos resultados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A responsabilidade da criação e validação do plano de testes de integração é da própria equipe e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não há registro dos resultados</t>
+    </r>
+  </si>
+  <si>
+    <t>Onde e como é armazenado o plano de testes de integração?</t>
+  </si>
+  <si>
+    <t>Não existe um processo ou local específico para armazenar os testes de integração ou o registro de rastreabilidade não é atualizado</t>
+  </si>
+  <si>
+    <t>Testes unitários são desenvolvidos e aplicados para verificar se o componente de software implementa uma parte detalhada do projeto de software. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testes unitários são desenvolvidos e aplicados para verificar o comportamento do componente de software, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem utilizar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>somente</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o projeto de software como referência, apesar do mesmo existir</t>
     </r>
     <r>
       <rPr>
@@ -4526,30 +4613,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a partir das especificação de requisitos</t>
-    </r>
-  </si>
-  <si>
-    <t>Casos e procedimentos de testes de integração são gerados pela própria equipe, com pouca ou nenhuma influência do projeto de software e requisitos</t>
-  </si>
-  <si>
-    <t>Os testes de integração de software não são gerados</t>
-  </si>
-  <si>
-    <t>Como são verificados e aprovados os planos de testes de integração de software?</t>
-  </si>
-  <si>
-    <t>Os testes de integração de software não são verificados</t>
-  </si>
-  <si>
-    <t>Como são registrados os resultados da análise e verificação dos planos de testes de integração?</t>
-  </si>
-  <si>
-    <t>Resultados são registrados em um documento de resultado de validação e as correções necessárias são feitas até a verificação do plano de testes de integração</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As correções necessárias são feitas até a verificação do plano de testes de integração mas </t>
+      <t>. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testes unitários são desenvolvidos e aplicados para verificar o comportamento do componente de software, mas </t>
     </r>
     <r>
       <rPr>
@@ -4557,15 +4626,19 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem utilizar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>não há registro dos resultados</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A responsabilidade da criação e validação do plano de testes de integração é da própria equipe e </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4573,24 +4646,24 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o projeto de software como referência porque o mesmo não existe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>não há registro dos resultados</t>
-    </r>
-  </si>
-  <si>
-    <t>Onde e como é armazenado o plano de testes de integração?</t>
-  </si>
-  <si>
-    <t>Não existe um processo ou local específico para armazenar os testes de integração ou o registro de rastreabilidade não é atualizado</t>
-  </si>
-  <si>
-    <t>Testes unitários são desenvolvidos e aplicados para verificar se o componente de software implementa uma parte detalhada do projeto de software. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Testes unitários são desenvolvidos e aplicados para verificar o comportamento do componente de software, mas </t>
+      <t>. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Os testes são realizados pela mesma pessoa que desenvolveu o componente de software, através da operação do software ou equivalente (</t>
     </r>
     <r>
       <rPr>
@@ -4598,20 +4671,19 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem utilizar testes unitários</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sem utilizar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">) ou </t>
     </r>
     <r>
       <rPr>
@@ -4619,101 +4691,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o projeto de software como referência, apesar do mesmo existir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Testes unitários são desenvolvidos e aplicados para verificar o comportamento do componente de software, mas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sem utilizar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o projeto de software como referência porque o mesmo não existe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Falhas são corrigidas até que o critéiro de validação dos testes unitários sejam atendidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Os testes são realizados pela mesma pessoa que desenvolveu o componente de software, através da operação do software ou equivalente (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sem utilizar testes unitários</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não há teste de software</t>
@@ -4748,15 +4725,39 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não se preocupam em entender o projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A equipe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não tem acesso ao projeto de software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>não se preocupam em entender o projeto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A equipe </t>
+      <t>, mas são instruídos com detalhes do mesmo para construir os componentes de software</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A equipe constrói os componentes de software baseados em instruções do GP/LE/Analista, pois </t>
     </r>
     <r>
       <rPr>
@@ -4764,25 +4765,14 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não tem acesso ao projeto de software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, mas são instruídos com detalhes do mesmo para construir os componentes de software</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A equipe constrói os componentes de software baseados em instruções do GP/LE/Analista, pois </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não existe um projeto de software</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A equipe constrói os componentes de software baseados em documentações (requisitos, casos, etc.), pois </t>
     </r>
     <r>
       <rPr>
@@ -4790,23 +4780,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não existe um projeto de software</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A equipe constrói os componentes de software baseados em documentações (requisitos, casos, etc.), pois </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não existe um projeto de software</t>
@@ -4835,7 +4808,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não são incorporados ao registro de rastreabilidade</t>
@@ -4851,7 +4823,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não fazem parte de uma baseline</t>
@@ -4911,7 +4882,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não há um ambiente de testes ou este não é preparado.</t>
@@ -4942,7 +4912,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não fazem parte do projeto de software</t>
@@ -4958,7 +4927,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>que não utiliza testes de integração</t>
@@ -4984,10 +4952,37 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">não </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">não </t>
+      <t>são registrados em um relatório de testes. Falhas são corrigidas e testes de regressão são efetuados até que o critéiro de validação dos testes sejam atendidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Não existe validação da integração dos componentes de software</t>
+  </si>
+  <si>
+    <r>
+      <t>Os testes são realizados por outra pessoa, que não desenvolveu o componente de software, através da operação do software ou equivalente (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem utilizar testes unitários</t>
     </r>
     <r>
       <rPr>
@@ -4997,11 +4992,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>são registrados em um relatório de testes. Falhas são corrigidas e testes de regressão são efetuados até que o critéiro de validação dos testes sejam atendidos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Não existe validação da integração dos componentes de software</t>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5013,25 +5005,24 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem utilizar testes de integração</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sem utilizar testes unitários</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Os testes são realizados por outra pessoa, que não desenvolveu o componente de software, através da operação do software ou equivalente (</t>
+      <t>Os testes são realizados pela mesma pessoa que desenvolveu o componente de software, através da operação do software ou equivalente (</t>
     </r>
     <r>
       <rPr>
@@ -5039,33 +5030,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sem utilizar testes de integração</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Os testes são realizados pela mesma pessoa que desenvolveu o componente de software, através da operação do software ou equivalente (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>sem utilizar testes de integração</t>
@@ -5105,7 +5069,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mas não existe um repositório do projeto</t>
@@ -5124,7 +5087,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>não é incorporado à configuração de software</t>
@@ -5156,7 +5118,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mas o resultado da verificação não é registrado.</t>
@@ -5193,7 +5154,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mas não existe um reposistório do projeto</t>
@@ -5212,7 +5172,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mas não existe um repositório do projeto</t>
@@ -5247,7 +5206,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>mas não disponibilizadas ao cliente</t>
@@ -5266,7 +5224,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>sem nenhum envio de instruções prévias para o cliente</t>
@@ -5284,7 +5241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5427,14 +5384,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6124,6 +6073,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6136,13 +6094,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6157,18 +6118,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6180,424 +6129,424 @@
     </xf>
   </cellXfs>
   <cellStyles count="419">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7057,7 +7006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7067,26 +7016,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
-    <col min="3" max="15" width="8.85546875" style="4"/>
+    <col min="3" max="15" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="C2" s="59" t="s">
         <v>68</v>
       </c>
@@ -7102,7 +7051,7 @@
       <c r="M2" s="59"/>
       <c r="N2" s="59"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="84">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7146,7 +7095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="42">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -7190,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="56">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -7278,7 +7227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -7322,7 +7271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -7366,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="56">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -7410,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -7454,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -7483,7 +7432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -7503,7 +7452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -7526,7 +7475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -7537,7 +7486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -7571,26 +7520,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.5703125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="99">
+      <c r="A1" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>449</v>
       </c>
       <c r="C1" s="40" t="s">
@@ -7608,7 +7557,7 @@
       <c r="G1" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>462</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -7697,9 +7646,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -7707,7 +7656,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="39">
         <v>5</v>
@@ -7802,11 +7751,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>456</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -7824,7 +7773,7 @@
       <c r="G3" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="60" t="s">
         <v>475</v>
       </c>
       <c r="I3" s="12"/>
@@ -7843,9 +7792,9 @@
       <c r="V3" s="39"/>
       <c r="AK3" s="58"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
@@ -7853,7 +7802,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="34">
         <v>4</v>
@@ -7949,11 +7898,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="70" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>464</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -7971,7 +7920,7 @@
       <c r="G5" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="12"/>
       <c r="J5" s="34"/>
       <c r="K5" s="39"/>
@@ -7988,9 +7937,9 @@
       <c r="V5" s="39"/>
       <c r="AK5" s="58"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -7998,7 +7947,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="64"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>2</v>
@@ -8094,11 +8043,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:37" s="3" customFormat="1" ht="98">
+      <c r="A7" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>469</v>
       </c>
       <c r="C7" s="40" t="s">
@@ -8116,7 +8065,7 @@
       <c r="G7" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="12"/>
       <c r="J7" s="34"/>
       <c r="K7" s="39"/>
@@ -8133,9 +8082,9 @@
       <c r="V7" s="39"/>
       <c r="AK7" s="58"/>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="3" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
@@ -8143,7 +8092,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="64"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>4</v>
@@ -8239,11 +8188,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:37" s="3" customFormat="1" ht="336" customHeight="1">
+      <c r="A9" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="60" t="s">
         <v>491</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -8261,7 +8210,7 @@
       <c r="G9" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="60" t="s">
         <v>478</v>
       </c>
       <c r="I9" s="12"/>
@@ -8280,9 +8229,9 @@
       <c r="V9" s="39"/>
       <c r="AK9" s="58"/>
     </row>
-    <row r="10" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:37" s="3" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8290,7 +8239,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="64"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="12"/>
       <c r="J10" s="34">
         <v>3</v>
@@ -8386,11 +8335,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="3" customFormat="1" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:37" s="3" customFormat="1" ht="266" customHeight="1">
+      <c r="A11" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="61" t="s">
         <v>492</v>
       </c>
       <c r="C11" s="40" t="s">
@@ -8408,7 +8357,7 @@
       <c r="G11" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="12"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8425,9 +8374,9 @@
       <c r="V11" s="39"/>
       <c r="AK11" s="58"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:37" s="3" customFormat="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -8435,7 +8384,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="64"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="12"/>
       <c r="J12" s="34">
         <v>0</v>
@@ -8531,11 +8480,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1">
+      <c r="A13" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>480</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -8553,7 +8502,7 @@
       <c r="G13" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="60" t="s">
         <v>499</v>
       </c>
       <c r="I13" s="12"/>
@@ -8572,9 +8521,9 @@
       <c r="V13" s="39"/>
       <c r="AK13" s="58"/>
     </row>
-    <row r="14" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:37" s="3" customFormat="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8582,7 +8531,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="12"/>
       <c r="J14" s="34">
         <v>0</v>
@@ -8678,11 +8627,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:37" s="3" customFormat="1" ht="126">
+      <c r="A15" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="61" t="s">
         <v>481</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -8700,7 +8649,7 @@
       <c r="G15" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H15" s="64"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="12"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -8717,9 +8666,9 @@
       <c r="V15" s="39"/>
       <c r="AK15" s="58"/>
     </row>
-    <row r="16" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
+    <row r="16" spans="1:37" s="3" customFormat="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8727,7 +8676,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="64"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34">
         <v>0</v>
@@ -8823,11 +8772,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:37" ht="126" customHeight="1">
+      <c r="A17" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>542</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -8845,7 +8794,7 @@
       <c r="G17" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="60" t="s">
         <v>502</v>
       </c>
       <c r="I17" s="12"/>
@@ -8863,9 +8812,9 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+    <row r="18" spans="1:37">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -8873,7 +8822,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="64"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="12"/>
       <c r="J18" s="34">
         <v>0</v>
@@ -8968,7 +8917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -8982,10 +8931,10 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="B21" s="15" t="s">
         <v>274</v>
       </c>
@@ -8996,6 +8945,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="H1:H2"/>
@@ -9006,26 +8968,13 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -9039,26 +8988,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.5703125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.5" style="44" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="99">
+      <c r="A1" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>449</v>
       </c>
       <c r="C1" s="45" t="s">
@@ -9076,7 +9025,7 @@
       <c r="G1" s="45" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>516</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -9165,9 +9114,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -9175,7 +9124,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="44">
         <v>5</v>
@@ -9270,11 +9219,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>503</v>
       </c>
       <c r="C3" s="45" t="s">
@@ -9292,7 +9241,7 @@
       <c r="G3" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="61" t="s">
         <v>519</v>
       </c>
       <c r="I3" s="12"/>
@@ -9311,9 +9260,9 @@
       <c r="V3" s="44"/>
       <c r="AK3" s="58"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -9417,11 +9366,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="204" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="196">
+      <c r="A5" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>509</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -9456,9 +9405,9 @@
       <c r="V5" s="44"/>
       <c r="AK5" s="58"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -9466,7 +9415,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>4</v>
@@ -9562,11 +9511,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:37" s="3" customFormat="1" ht="336" customHeight="1">
+      <c r="A7" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>521</v>
       </c>
       <c r="C7" s="45" t="s">
@@ -9584,7 +9533,7 @@
       <c r="G7" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="60" t="s">
         <v>534</v>
       </c>
       <c r="I7" s="12"/>
@@ -9603,9 +9552,9 @@
       <c r="V7" s="44"/>
       <c r="AK7" s="58"/>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="3" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -9613,7 +9562,7 @@
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>3</v>
@@ -9709,11 +9658,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:37" s="3" customFormat="1" ht="266" customHeight="1">
+      <c r="A9" s="60" t="s">
         <v>527</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>528</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -9731,7 +9680,7 @@
       <c r="G9" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="12"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
@@ -9748,9 +9697,9 @@
       <c r="V9" s="44"/>
       <c r="AK9" s="58"/>
     </row>
-    <row r="10" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="66"/>
+    <row r="10" spans="1:37" s="3" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -9758,7 +9707,7 @@
       <c r="G10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="12"/>
       <c r="J10" s="34">
         <v>0</v>
@@ -9854,11 +9803,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1">
+      <c r="A11" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>552</v>
       </c>
       <c r="C11" s="45" t="s">
@@ -9876,7 +9825,7 @@
       <c r="G11" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="61" t="s">
         <v>536</v>
       </c>
       <c r="I11" s="12"/>
@@ -9895,9 +9844,9 @@
       <c r="V11" s="44"/>
       <c r="AK11" s="58"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:37" s="3" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9905,7 +9854,7 @@
       <c r="G12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="12"/>
       <c r="J12" s="34">
         <v>4</v>
@@ -10001,11 +9950,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="3" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:37" s="3" customFormat="1" ht="229.5" customHeight="1">
+      <c r="A13" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>558</v>
       </c>
       <c r="C13" s="45" t="s">
@@ -10023,7 +9972,7 @@
       <c r="G13" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="61" t="s">
         <v>551</v>
       </c>
       <c r="I13" s="12"/>
@@ -10042,9 +9991,9 @@
       <c r="V13" s="44"/>
       <c r="AK13" s="58"/>
     </row>
-    <row r="14" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:37" s="3" customFormat="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10148,11 +10097,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:37" ht="222" customHeight="1">
+      <c r="A15" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="61" t="s">
         <v>560</v>
       </c>
       <c r="C15" s="45" t="s">
@@ -10186,9 +10135,9 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="66"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -10196,7 +10145,7 @@
       <c r="G16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34">
         <v>0</v>
@@ -10291,11 +10240,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:37" ht="126" customHeight="1">
+      <c r="A17" s="60" t="s">
         <v>550</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>564</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -10313,7 +10262,7 @@
       <c r="G17" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="60" t="s">
         <v>549</v>
       </c>
       <c r="I17" s="12"/>
@@ -10331,9 +10280,9 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+    <row r="18" spans="1:37">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -10341,7 +10290,7 @@
       <c r="G18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="12"/>
       <c r="J18" s="34">
         <v>0</v>
@@ -10436,7 +10385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="B19" s="15" t="s">
         <v>274</v>
       </c>
@@ -10447,6 +10396,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="H17:H18"/>
@@ -10455,25 +10420,15 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10485,26 +10440,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.5703125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="154">
+      <c r="A1" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>574</v>
       </c>
       <c r="C1" s="55" t="s">
@@ -10522,7 +10477,7 @@
       <c r="G1" s="55" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>580</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -10611,9 +10566,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -10621,7 +10576,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="54">
         <v>5</v>
@@ -10716,11 +10671,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="224">
+      <c r="A3" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>571</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -10738,7 +10693,7 @@
       <c r="G3" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="60" t="s">
         <v>572</v>
       </c>
       <c r="I3" s="12"/>
@@ -10768,9 +10723,9 @@
       <c r="AI3" s="34"/>
       <c r="AK3" s="58"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10778,7 +10733,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="54">
         <v>5</v>
@@ -10869,11 +10824,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>570</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10891,7 +10846,7 @@
       <c r="G5" s="55" t="s">
         <v>587</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="60" t="s">
         <v>588</v>
       </c>
       <c r="I5" s="12"/>
@@ -10910,9 +10865,9 @@
       <c r="V5" s="54"/>
       <c r="AK5" s="58"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -10920,7 +10875,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>3</v>
@@ -11016,7 +10971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="B7" s="15" t="s">
         <v>274</v>
       </c>
@@ -11037,8 +10992,14 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11050,26 +11011,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.5703125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="147" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>600</v>
       </c>
       <c r="C1" s="55" t="s">
@@ -11087,7 +11048,7 @@
       <c r="G1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>605</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -11176,9 +11137,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -11186,7 +11147,7 @@
       <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="54">
         <v>5</v>
@@ -11281,11 +11242,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="112">
+      <c r="A3" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>590</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -11303,7 +11264,7 @@
       <c r="G3" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="60" t="s">
         <v>594</v>
       </c>
       <c r="I3" s="12"/>
@@ -11333,9 +11294,9 @@
       <c r="AI3" s="34"/>
       <c r="AK3" s="58"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -11343,7 +11304,7 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="54">
         <v>5</v>
@@ -11434,11 +11395,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>597</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11456,7 +11417,7 @@
       <c r="G5" s="55" t="s">
         <v>608</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="61" t="s">
         <v>612</v>
       </c>
       <c r="I5" s="12"/>
@@ -11475,9 +11436,9 @@
       <c r="V5" s="54"/>
       <c r="AK5" s="58"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -11485,7 +11446,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>5</v>
@@ -11581,11 +11542,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A7" s="61" t="s">
         <v>613</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>614</v>
       </c>
       <c r="C7" s="55" t="s">
@@ -11603,7 +11564,7 @@
       <c r="G7" s="55" t="s">
         <v>589</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="61" t="s">
         <v>619</v>
       </c>
       <c r="I7" s="12"/>
@@ -11622,9 +11583,9 @@
       <c r="V7" s="54"/>
       <c r="AK7" s="58"/>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="3" customFormat="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -11632,7 +11593,7 @@
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>5</v>
@@ -11728,7 +11689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="B9" s="15" t="s">
         <v>274</v>
       </c>
@@ -11739,21 +11700,27 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11765,26 +11732,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.5703125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.5" style="56" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="206.25" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>621</v>
       </c>
       <c r="C1" s="57" t="s">
@@ -11802,7 +11769,7 @@
       <c r="G1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>626</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -11891,9 +11858,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -11901,7 +11868,7 @@
       <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="56">
         <v>0</v>
@@ -11996,11 +11963,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="112">
+      <c r="A3" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>628</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -12018,7 +11985,7 @@
       <c r="G3" s="57" t="s">
         <v>633</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="60" t="s">
         <v>634</v>
       </c>
       <c r="I3" s="12"/>
@@ -12048,9 +12015,9 @@
       <c r="AI3" s="34"/>
       <c r="AK3" s="58"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -12058,7 +12025,7 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="56">
         <v>0</v>
@@ -12149,11 +12116,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="252" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>636</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -12171,7 +12138,7 @@
       <c r="G5" s="57" t="s">
         <v>641</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="61" t="s">
         <v>642</v>
       </c>
       <c r="I5" s="12"/>
@@ -12190,9 +12157,9 @@
       <c r="V5" s="56"/>
       <c r="AK5" s="58"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -12200,7 +12167,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>5</v>
@@ -12296,7 +12263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="B7" s="15" t="s">
         <v>274</v>
       </c>
@@ -12317,8 +12284,14 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12330,13 +12303,13 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="86.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="86.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4 16384:16384" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4 16384:16384" s="26" customFormat="1" ht="12">
       <c r="A1" s="43" t="s">
         <v>427</v>
       </c>
@@ -12350,7 +12323,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:4 16384:16384" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4 16384:16384" s="26" customFormat="1">
       <c r="A2" t="str">
         <f>SI.6!A5</f>
         <v>SI.6.6.Q1</v>
@@ -12369,7 +12342,7 @@
       </c>
       <c r="XFD2"/>
     </row>
-    <row r="3" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4 16384:16384">
       <c r="A3" t="str">
         <f>SI.3!A7</f>
         <v>SI.3.4.Q1</v>
@@ -12387,7 +12360,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4 16384:16384">
       <c r="A4" t="str">
         <f>SI.6!A1</f>
         <v>SI.6.3.Q1</v>
@@ -12405,7 +12378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4 16384:16384">
       <c r="A5" t="str">
         <f>SI.3!A3</f>
         <v>SI.3.3.Q1</v>
@@ -12423,7 +12396,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4 16384:16384">
       <c r="A6" t="str">
         <f>SI.5!A1</f>
         <v>SI.5.3.Q1</v>
@@ -12441,7 +12414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4 16384:16384">
       <c r="A7" t="str">
         <f>SI.5!A7</f>
         <v>SI.5.6.Q1</v>
@@ -12459,7 +12432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4 16384:16384">
       <c r="A8" t="str">
         <f>SI.2!A1</f>
         <v>SI.2.1.Q1</v>
@@ -12477,7 +12450,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4 16384:16384">
       <c r="A9" t="str">
         <f>SI.3!A11</f>
         <v>SI.3.5.Q1</v>
@@ -12495,7 +12468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4 16384:16384">
       <c r="A10" t="str">
         <f>SI.3!A5</f>
         <v>SI.3.3.Q2</v>
@@ -12513,7 +12486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4 16384:16384">
       <c r="A11" t="str">
         <f>SI.4!A5</f>
         <v>SI.4.6.Q1</v>
@@ -12531,7 +12504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4 16384:16384">
       <c r="A12" t="str">
         <f>SI.5!A5</f>
         <v>SI.5.4.Q1</v>
@@ -12549,7 +12522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4 16384:16384">
       <c r="A13" t="str">
         <f>SI.4!A1</f>
         <v>SI.4.2.Q1</v>
@@ -12567,7 +12540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4 16384:16384">
       <c r="A14" t="str">
         <f>SI.4!A3</f>
         <v>SI.4.4.Q1</v>
@@ -12585,7 +12558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4 16384:16384">
       <c r="A15" t="str">
         <f>SI.3!A1</f>
         <v>SI.3.1.Q1</v>
@@ -12603,7 +12576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4 16384:16384">
       <c r="A16" t="str">
         <f>SI.2!A9</f>
         <v>SI.2.3.Q1</v>
@@ -12621,7 +12594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="str">
         <f>SI.5!A3</f>
         <v>SI.5.2.Q1</v>
@@ -12639,7 +12612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="str">
         <f>SI.6!A3</f>
         <v>SI.6.5.Q1</v>
@@ -12657,7 +12630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="str">
         <f>SI.2!A13</f>
         <v>SI.2.4.Q1</v>
@@ -12675,7 +12648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="str">
         <f>SI.3!A13</f>
         <v>SI.3.6.Q1</v>
@@ -12693,7 +12666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="str">
         <f>SI.3!A9</f>
         <v>SI.3.4.Q2</v>
@@ -12711,7 +12684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="str">
         <f>SI.2!A11</f>
         <v>SI.2.3.Q2</v>
@@ -12729,7 +12702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="str">
         <f>SI.2!A7</f>
         <v>SI.2.2.Q3</v>
@@ -12747,7 +12720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="str">
         <f>SI.1!A1</f>
         <v>SI.1.1.Q1</v>
@@ -12765,7 +12738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="str">
         <f>SI.3!A15</f>
         <v>SI.3.6.Q2</v>
@@ -12783,7 +12756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="str">
         <f>SI.3!A17</f>
         <v>SI.3.8.Q1</v>
@@ -12801,7 +12774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="str">
         <f>SI.2!A15</f>
         <v>SI.2.4.Q2</v>
@@ -12819,7 +12792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="str">
         <f>SI.1!A5</f>
         <v>SI.1.2.Q1</v>
@@ -12837,7 +12810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="str">
         <f>SI.2!A17</f>
         <v>SI.2.7.Q1</v>
@@ -12855,7 +12828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="str">
         <f>SI.2!A5</f>
         <v>SI.2.2.Q2</v>
@@ -12873,7 +12846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="str">
         <f>SI.1!A3</f>
         <v>SI.1.1.Q2</v>
@@ -12891,7 +12864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="str">
         <f>SI.2!A3</f>
         <v>SI.2.2.Q1</v>
@@ -12915,6 +12888,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12926,12 +12904,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="31" t="s">
         <v>408</v>
       </c>
@@ -12942,7 +12920,7 @@
       <c r="G1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12955,7 +12933,7 @@
       <c r="G2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -12968,7 +12946,7 @@
       <c r="G3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -12981,7 +12959,7 @@
       <c r="G4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -12994,7 +12972,7 @@
       <c r="G5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -13007,7 +12985,7 @@
       <c r="G6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -13020,7 +12998,7 @@
       <c r="G7" s="30"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="E8" s="30"/>
@@ -13028,7 +13006,7 @@
       <c r="G8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
         <v>409</v>
       </c>
@@ -13039,7 +13017,7 @@
       <c r="G9" s="30"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -13050,7 +13028,7 @@
       <c r="G10" s="30"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
         <v>411</v>
       </c>
@@ -13065,7 +13043,7 @@
       <c r="G11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="32" t="s">
         <v>413</v>
       </c>
@@ -13080,7 +13058,7 @@
       <c r="G12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="32" t="s">
         <v>414</v>
       </c>
@@ -13095,7 +13073,7 @@
       <c r="G13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -13110,7 +13088,7 @@
       <c r="G14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -13125,7 +13103,7 @@
       <c r="G15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="E16" s="30"/>
@@ -13133,7 +13111,7 @@
       <c r="G16" s="30"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="33" t="s">
         <v>418</v>
       </c>
@@ -13144,7 +13122,7 @@
       <c r="G17" s="30"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="32" t="s">
         <v>61</v>
       </c>
@@ -13173,7 +13151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="32" t="s">
         <v>63</v>
       </c>
@@ -13202,7 +13180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="32" t="s">
         <v>64</v>
       </c>
@@ -13231,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="32" t="s">
         <v>65</v>
       </c>
@@ -13260,7 +13238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="32" t="s">
         <v>67</v>
       </c>
@@ -13289,7 +13267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="32" t="s">
         <v>57</v>
       </c>
@@ -13340,19 +13318,19 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
-    <col min="3" max="10" width="8.85546875" style="4"/>
+    <col min="3" max="10" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="C2" s="59" t="s">
         <v>54</v>
       </c>
@@ -13368,7 +13346,7 @@
       <c r="M2" s="59"/>
       <c r="N2" s="59"/>
     </row>
-    <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="84">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -13412,7 +13390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -13456,7 +13434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -13500,7 +13478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="42">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -13544,7 +13522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="42">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -13588,7 +13566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="42">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -13632,7 +13610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="56">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -13676,7 +13654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="42">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -13720,7 +13698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -13749,7 +13727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -13760,7 +13738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -13777,7 +13755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -13794,7 +13772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -13811,7 +13789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -13828,7 +13806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -13860,21 +13838,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="29" customWidth="1"/>
-    <col min="2" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="30" customWidth="1"/>
-    <col min="8" max="15" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="37" style="29" customWidth="1"/>
+    <col min="2" max="6" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="30" customWidth="1"/>
+    <col min="8" max="15" width="4.1640625" customWidth="1"/>
     <col min="16" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="30"/>
+    <col min="17" max="17" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1"/>
       <c r="Q1" s="30" t="s">
         <v>407</v>
@@ -13887,7 +13865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
@@ -13911,7 +13889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
@@ -13935,7 +13913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>57</v>
       </c>
@@ -13959,7 +13937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
@@ -13973,7 +13951,9 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="M5" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="N5" s="30" t="s">
         <v>23</v>
       </c>
@@ -13983,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>60</v>
       </c>
@@ -14007,7 +13987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>58</v>
       </c>
@@ -14031,7 +14011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
@@ -14056,7 +14036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>61</v>
       </c>
@@ -14080,7 +14060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>63</v>
       </c>
@@ -14104,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>64</v>
       </c>
@@ -14128,7 +14108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>65</v>
       </c>
@@ -14152,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -14195,26 +14175,26 @@
       <selection activeCell="W1" sqref="W1:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="37" width="6.85546875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="17.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="37" width="6.83203125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="99">
+      <c r="A1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -14232,7 +14212,7 @@
       <c r="G1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>101</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -14321,9 +14301,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="3" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -14331,7 +14311,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="24">
         <v>4</v>
@@ -14426,11 +14406,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="28">
+      <c r="A3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -14448,7 +14428,7 @@
       <c r="G3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="12"/>
       <c r="J3" s="34"/>
       <c r="K3" s="24"/>
@@ -14466,9 +14446,9 @@
       <c r="AJ3" s="56"/>
       <c r="AK3" s="56"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="3" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -14476,7 +14456,7 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="34">
         <v>4</v>
@@ -14572,11 +14552,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="70" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -14594,7 +14574,7 @@
       <c r="G5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="12"/>
       <c r="J5" s="34"/>
       <c r="K5" s="24"/>
@@ -14612,9 +14592,9 @@
       <c r="AJ5" s="56"/>
       <c r="AK5" s="56"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37" s="3" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
         <v>23</v>
@@ -14622,7 +14602,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="64"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>3</v>
@@ -14718,11 +14698,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:37" s="3" customFormat="1" ht="42">
+      <c r="A7" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -14740,7 +14720,7 @@
       <c r="G7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="12"/>
       <c r="J7" s="34"/>
       <c r="K7" s="24"/>
@@ -14758,9 +14738,9 @@
       <c r="AJ7" s="56"/>
       <c r="AK7" s="56"/>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="3" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -14768,7 +14748,7 @@
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>0</v>
@@ -14864,11 +14844,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:37" s="3" customFormat="1" ht="154">
+      <c r="A9" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -14886,7 +14866,7 @@
       <c r="G9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="60" t="s">
         <v>101</v>
       </c>
       <c r="I9" s="12"/>
@@ -14906,9 +14886,9 @@
       <c r="AJ9" s="56"/>
       <c r="AK9" s="56"/>
     </row>
-    <row r="10" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:37" s="3" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -14916,7 +14896,7 @@
       <c r="G10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="12"/>
       <c r="J10" s="34">
         <v>5</v>
@@ -15012,11 +14992,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:37" s="3" customFormat="1" ht="84" customHeight="1">
+      <c r="A11" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -15034,7 +15014,7 @@
       <c r="G11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="60" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="12"/>
@@ -15054,9 +15034,9 @@
       <c r="AJ11" s="56"/>
       <c r="AK11" s="56"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:37" s="3" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -15064,7 +15044,7 @@
       <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="64"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="12"/>
       <c r="J12" s="34">
         <v>2</v>
@@ -15160,11 +15140,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="3" customFormat="1" ht="266.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:37" s="3" customFormat="1" ht="266" customHeight="1">
+      <c r="A13" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -15182,7 +15162,7 @@
       <c r="G13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="60" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="12"/>
@@ -15202,9 +15182,9 @@
       <c r="AJ13" s="56"/>
       <c r="AK13" s="56"/>
     </row>
-    <row r="14" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:37" s="3" customFormat="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
         <v>23</v>
@@ -15212,7 +15192,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="12"/>
       <c r="J14" s="34">
         <v>5</v>
@@ -15308,11 +15288,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:37" s="3" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A15" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -15330,7 +15310,7 @@
       <c r="G15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="64"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="12"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -15348,9 +15328,9 @@
       <c r="AJ15" s="56"/>
       <c r="AK15" s="56"/>
     </row>
-    <row r="16" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:37" s="3" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -15358,7 +15338,7 @@
       <c r="G16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34">
         <v>5</v>
@@ -15454,11 +15434,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:37" s="3" customFormat="1" ht="42">
+      <c r="A17" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -15476,7 +15456,7 @@
       <c r="G17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="12"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -15494,9 +15474,9 @@
       <c r="AJ17" s="56"/>
       <c r="AK17" s="56"/>
     </row>
-    <row r="18" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+    <row r="18" spans="1:37" s="3" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -15504,7 +15484,7 @@
       <c r="G18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="12"/>
       <c r="J18" s="34">
         <v>3</v>
@@ -15600,11 +15580,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:37" s="3" customFormat="1" ht="84">
+      <c r="A19" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -15622,7 +15602,7 @@
       <c r="G19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="60" t="s">
         <v>122</v>
       </c>
       <c r="I19" s="12"/>
@@ -15642,9 +15622,9 @@
       <c r="AJ19" s="56"/>
       <c r="AK19" s="56"/>
     </row>
-    <row r="20" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+    <row r="20" spans="1:37" s="3" customFormat="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
@@ -15652,7 +15632,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="64"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="12"/>
       <c r="J20" s="34">
         <v>5</v>
@@ -15748,11 +15728,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:37" s="3" customFormat="1" ht="168" customHeight="1">
+      <c r="A21" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>125</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -15770,7 +15750,7 @@
       <c r="G21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="60" t="s">
         <v>124</v>
       </c>
       <c r="I21" s="12"/>
@@ -15790,9 +15770,9 @@
       <c r="AJ21" s="56"/>
       <c r="AK21" s="56"/>
     </row>
-    <row r="22" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+    <row r="22" spans="1:37" s="3" customFormat="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -15800,7 +15780,7 @@
       <c r="G22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="12"/>
       <c r="J22" s="34">
         <v>5</v>
@@ -15896,11 +15876,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:37" s="3" customFormat="1" ht="84">
+      <c r="A23" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="60" t="s">
         <v>132</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -15918,7 +15898,7 @@
       <c r="G23" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="64"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="12"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -15936,9 +15916,9 @@
       <c r="AJ23" s="56"/>
       <c r="AK23" s="56"/>
     </row>
-    <row r="24" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:37" s="3" customFormat="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -15946,7 +15926,7 @@
       <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="64"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="12"/>
       <c r="J24" s="34">
         <v>5</v>
@@ -16042,11 +16022,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:37" ht="126" customHeight="1">
+      <c r="A25" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="60" t="s">
         <v>137</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -16064,7 +16044,7 @@
       <c r="G25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="60" t="s">
         <v>136</v>
       </c>
       <c r="I25" s="12"/>
@@ -16082,9 +16062,9 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
+    <row r="26" spans="1:37">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -16092,7 +16072,7 @@
       <c r="G26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="64"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="12"/>
       <c r="J26" s="34">
         <v>5</v>
@@ -16187,11 +16167,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:37" ht="70">
+      <c r="A27" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="60" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -16209,7 +16189,7 @@
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="64"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="12"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -16224,9 +16204,9 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+    <row r="28" spans="1:37">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -16234,7 +16214,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="64"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="12"/>
       <c r="J28" s="34">
         <v>0</v>
@@ -16329,11 +16309,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:37" ht="84">
+      <c r="A29" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -16351,7 +16331,7 @@
       <c r="G29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="64"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="12"/>
       <c r="J29" s="24"/>
       <c r="X29" s="3"/>
@@ -16367,9 +16347,9 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+    <row r="30" spans="1:37">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -16377,7 +16357,7 @@
       <c r="G30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="64"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="12"/>
       <c r="J30" s="34">
         <v>5</v>
@@ -16472,11 +16452,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+    <row r="31" spans="1:37" ht="70">
+      <c r="A31" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="60" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -16494,7 +16474,7 @@
       <c r="G31" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="64"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="12"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -16509,9 +16489,9 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:37">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -16519,7 +16499,7 @@
       <c r="G32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="12"/>
       <c r="J32" s="34">
         <v>5</v>
@@ -16614,11 +16594,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+    <row r="33" spans="1:37" ht="84">
+      <c r="A33" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="60" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -16636,7 +16616,7 @@
       <c r="G33" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="65" t="s">
         <v>150</v>
       </c>
       <c r="I33" s="20"/>
@@ -16654,9 +16634,9 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:37">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -16664,7 +16644,7 @@
       <c r="G34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="62"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="20"/>
       <c r="J34" s="34">
         <v>5</v>
@@ -16759,11 +16739,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:37" ht="70">
+      <c r="A35" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="60" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -16781,7 +16761,7 @@
       <c r="G35" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="62"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="20"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -16796,9 +16776,9 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:37">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
@@ -16806,7 +16786,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="62"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="20"/>
       <c r="J36" s="34">
         <v>5</v>
@@ -16901,11 +16881,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:37" ht="168" customHeight="1">
+      <c r="A37" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="60" t="s">
         <v>162</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -16923,7 +16903,7 @@
       <c r="G37" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="65" t="s">
         <v>160</v>
       </c>
       <c r="I37" s="20"/>
@@ -16941,9 +16921,9 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:37">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10" t="s">
@@ -16951,7 +16931,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="65"/>
       <c r="I38" s="20"/>
       <c r="J38" s="34">
         <v>5</v>
@@ -17046,11 +17026,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:37" ht="112">
+      <c r="A39" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="60" t="s">
         <v>168</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -17068,7 +17048,7 @@
       <c r="G39" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="65" t="s">
         <v>173</v>
       </c>
       <c r="I39" s="20"/>
@@ -17085,9 +17065,9 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:37">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -17095,7 +17075,7 @@
       <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="62"/>
+      <c r="H40" s="65"/>
       <c r="I40" s="20"/>
       <c r="J40" s="34">
         <v>5</v>
@@ -17190,11 +17170,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+    <row r="41" spans="1:37" ht="112">
+      <c r="A41" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="60" t="s">
         <v>175</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -17212,7 +17192,7 @@
       <c r="G41" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="62"/>
+      <c r="H41" s="65"/>
       <c r="I41" s="20"/>
       <c r="J41" s="24"/>
       <c r="X41" s="3"/>
@@ -17228,9 +17208,9 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
+    <row r="42" spans="1:37">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -17238,7 +17218,7 @@
       <c r="G42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="62"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="20"/>
       <c r="J42" s="34">
         <v>5</v>
@@ -17333,11 +17313,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+    <row r="43" spans="1:37" ht="70">
+      <c r="A43" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="60" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -17355,7 +17335,7 @@
       <c r="G43" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="65" t="s">
         <v>180</v>
       </c>
       <c r="I43" s="20"/>
@@ -17372,9 +17352,9 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+    <row r="44" spans="1:37">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="8" t="s">
@@ -17382,7 +17362,7 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="62"/>
+      <c r="H44" s="65"/>
       <c r="I44" s="20"/>
       <c r="J44" s="34">
         <v>5</v>
@@ -17477,11 +17457,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+    <row r="45" spans="1:37" ht="70">
+      <c r="A45" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="60" t="s">
         <v>186</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -17499,7 +17479,7 @@
       <c r="G45" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="62"/>
+      <c r="H45" s="65"/>
       <c r="I45" s="20"/>
       <c r="J45" s="24"/>
       <c r="X45" s="3"/>
@@ -17515,9 +17495,9 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
+    <row r="46" spans="1:37">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
@@ -17525,7 +17505,7 @@
       <c r="G46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="62"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="20"/>
       <c r="J46" s="34">
         <v>5</v>
@@ -17620,11 +17600,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="47" spans="1:37" ht="56">
+      <c r="A47" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="60" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -17642,7 +17622,7 @@
       <c r="G47" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="65" t="s">
         <v>188</v>
       </c>
       <c r="I47" s="20"/>
@@ -17659,9 +17639,9 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
+    <row r="48" spans="1:37">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -17669,7 +17649,7 @@
       <c r="G48" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="62"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="20"/>
       <c r="J48" s="34">
         <v>5</v>
@@ -17764,11 +17744,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+    <row r="49" spans="1:37" ht="84">
+      <c r="A49" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="60" t="s">
         <v>197</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -17786,7 +17766,7 @@
       <c r="G49" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="H49" s="65" t="s">
         <v>195</v>
       </c>
       <c r="I49" s="20"/>
@@ -17804,9 +17784,9 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
+    <row r="50" spans="1:37">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -17814,7 +17794,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="8"/>
-      <c r="H50" s="62"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="20"/>
       <c r="J50" s="34">
         <v>5</v>
@@ -17909,11 +17889,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="153" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+    <row r="51" spans="1:37" ht="140">
+      <c r="A51" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="60" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -17931,7 +17911,7 @@
       <c r="G51" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="65" t="s">
         <v>202</v>
       </c>
       <c r="I51" s="20"/>
@@ -17948,9 +17928,9 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:37">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -17958,7 +17938,7 @@
       <c r="G52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="62"/>
+      <c r="H52" s="65"/>
       <c r="I52" s="20"/>
       <c r="J52" s="34">
         <v>5</v>
@@ -18053,11 +18033,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+    <row r="53" spans="1:37" ht="56">
+      <c r="A53" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="60" t="s">
         <v>213</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -18075,7 +18055,7 @@
       <c r="G53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="63" t="s">
         <v>209</v>
       </c>
       <c r="I53" s="20"/>
@@ -18093,9 +18073,9 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
+    <row r="54" spans="1:37">
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -18103,7 +18083,7 @@
       <c r="G54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="61"/>
+      <c r="H54" s="64"/>
       <c r="I54" s="20"/>
       <c r="J54" s="34">
         <v>2</v>
@@ -18198,11 +18178,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+    <row r="55" spans="1:37" ht="56">
+      <c r="A55" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="60" t="s">
         <v>230</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -18220,7 +18200,7 @@
       <c r="G55" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="H55" s="63" t="s">
         <v>209</v>
       </c>
       <c r="I55" s="20"/>
@@ -18237,9 +18217,9 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
+    <row r="56" spans="1:37">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -18247,7 +18227,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="8"/>
-      <c r="H56" s="63"/>
+      <c r="H56" s="66"/>
       <c r="I56" s="20"/>
       <c r="J56" s="34">
         <v>5</v>
@@ -18342,11 +18322,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+    <row r="57" spans="1:37" ht="56">
+      <c r="A57" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="60" t="s">
         <v>235</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -18364,7 +18344,7 @@
       <c r="G57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H57" s="63"/>
+      <c r="H57" s="66"/>
       <c r="I57" s="20"/>
       <c r="J57" s="24"/>
       <c r="X57" s="3"/>
@@ -18380,9 +18360,9 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:37">
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -18390,7 +18370,7 @@
       <c r="G58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="63"/>
+      <c r="H58" s="66"/>
       <c r="I58" s="20"/>
       <c r="J58" s="34">
         <v>2</v>
@@ -18485,11 +18465,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+    <row r="59" spans="1:37" ht="56">
+      <c r="A59" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="60" t="s">
         <v>236</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -18507,7 +18487,7 @@
       <c r="G59" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="63"/>
+      <c r="H59" s="66"/>
       <c r="I59" s="20"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
@@ -18522,9 +18502,9 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:37">
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -18532,7 +18512,7 @@
       <c r="G60" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="61"/>
+      <c r="H60" s="64"/>
       <c r="I60" s="20"/>
       <c r="J60" s="34">
         <v>5</v>
@@ -18627,11 +18607,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="195.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+    <row r="61" spans="1:37" ht="196" customHeight="1">
+      <c r="A61" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="60" t="s">
         <v>243</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -18649,7 +18629,7 @@
       <c r="G61" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="63" t="s">
         <v>241</v>
       </c>
       <c r="I61" s="20"/>
@@ -18666,9 +18646,9 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:37">
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -18676,7 +18656,7 @@
       <c r="G62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="63"/>
+      <c r="H62" s="66"/>
       <c r="I62" s="20"/>
       <c r="J62" s="34">
         <v>0</v>
@@ -18771,11 +18751,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
+    <row r="63" spans="1:37" ht="84">
+      <c r="A63" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="60" t="s">
         <v>249</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -18793,7 +18773,7 @@
       <c r="G63" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="H63" s="63"/>
+      <c r="H63" s="66"/>
       <c r="I63" s="20"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
@@ -18808,9 +18788,9 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
-      <c r="B64" s="64"/>
+    <row r="64" spans="1:37">
+      <c r="A64" s="62"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -18818,7 +18798,7 @@
       <c r="G64" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="63"/>
+      <c r="H64" s="66"/>
       <c r="I64" s="20"/>
       <c r="J64" s="34">
         <v>4</v>
@@ -18913,11 +18893,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+    <row r="65" spans="1:37" ht="98">
+      <c r="A65" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="60" t="s">
         <v>259</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -18935,7 +18915,7 @@
       <c r="G65" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="63"/>
+      <c r="H65" s="66"/>
       <c r="I65" s="20"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
@@ -18950,9 +18930,9 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="64"/>
+    <row r="66" spans="1:37">
+      <c r="A66" s="62"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -18960,7 +18940,7 @@
       <c r="G66" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="61"/>
+      <c r="H66" s="64"/>
       <c r="I66" s="20"/>
       <c r="J66" s="34">
         <v>5</v>
@@ -19055,11 +19035,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+    <row r="67" spans="1:37" ht="140">
+      <c r="A67" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="60" t="s">
         <v>423</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -19077,7 +19057,7 @@
       <c r="G67" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="H67" s="63" t="s">
         <v>258</v>
       </c>
       <c r="I67" s="20"/>
@@ -19094,9 +19074,9 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
+    <row r="68" spans="1:37">
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -19104,7 +19084,7 @@
       <c r="G68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="61"/>
+      <c r="H68" s="64"/>
       <c r="I68" s="20"/>
       <c r="J68" s="34">
         <v>5</v>
@@ -19199,11 +19179,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+    <row r="69" spans="1:37" ht="70">
+      <c r="A69" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="60" t="s">
         <v>269</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -19221,7 +19201,7 @@
       <c r="G69" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="63" t="s">
         <v>267</v>
       </c>
       <c r="I69" s="20"/>
@@ -19238,9 +19218,9 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
+    <row r="70" spans="1:37">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10" t="s">
@@ -19248,7 +19228,7 @@
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="61"/>
+      <c r="H70" s="64"/>
       <c r="I70" s="20"/>
       <c r="J70" s="34">
         <v>0</v>
@@ -19343,7 +19323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
@@ -19357,7 +19337,7 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="B73" s="15" t="s">
         <v>274</v>
       </c>
@@ -19368,12 +19348,73 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="H1:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
@@ -19390,77 +19431,16 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H25:H32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="H1:H8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="H61:H66"/>
-    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C73" emptyCellReference="1"/>
   </ignoredErrors>
@@ -19480,26 +19460,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" ht="99">
+      <c r="A1" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>276</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -19517,7 +19497,7 @@
       <c r="G1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="65" t="s">
         <v>424</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -19606,9 +19586,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -19616,7 +19596,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="62"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="12"/>
       <c r="J2" s="28">
         <v>5</v>
@@ -19713,11 +19693,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:37" ht="112">
+      <c r="A3" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>284</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -19735,7 +19715,7 @@
       <c r="G3" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="71" t="s">
         <v>282</v>
       </c>
       <c r="I3" s="12"/>
@@ -19767,9 +19747,9 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37">
+      <c r="A4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19777,7 +19757,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="12"/>
       <c r="J4" s="34">
         <v>3</v>
@@ -19874,11 +19854,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="102" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:37" ht="84">
+      <c r="A5" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>290</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -19896,7 +19876,7 @@
       <c r="G5" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="12"/>
       <c r="J5" s="34"/>
       <c r="K5" s="28"/>
@@ -19926,9 +19906,9 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37">
+      <c r="A6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -19936,7 +19916,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="69"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>3</v>
@@ -20033,11 +20013,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="204" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:37" ht="196">
+      <c r="A7" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>298</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -20055,7 +20035,7 @@
       <c r="G7" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="74" t="s">
         <v>282</v>
       </c>
       <c r="I7" s="12"/>
@@ -20087,9 +20067,9 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="30" customFormat="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -20097,7 +20077,7 @@
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>3</v>
@@ -20194,11 +20174,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:37" ht="98">
+      <c r="A9" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="60" t="s">
         <v>306</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -20216,7 +20196,7 @@
       <c r="G9" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="65" t="s">
         <v>304</v>
       </c>
       <c r="I9" s="12"/>
@@ -20248,9 +20228,9 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:37" s="30" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -20258,7 +20238,7 @@
       <c r="G10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="12"/>
       <c r="J10" s="34">
         <v>5</v>
@@ -20355,11 +20335,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:37" ht="168">
+      <c r="A11" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -20377,7 +20357,7 @@
       <c r="G11" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="65" t="s">
         <v>304</v>
       </c>
       <c r="I11" s="12"/>
@@ -20409,9 +20389,9 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -20419,7 +20399,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="12"/>
       <c r="J12" s="34">
         <v>5</v>
@@ -20516,11 +20496,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:37" ht="98" customHeight="1">
+      <c r="A13" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="67" t="s">
         <v>324</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -20538,7 +20518,7 @@
       <c r="G13" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="69" t="s">
         <v>325</v>
       </c>
       <c r="I13" s="12"/>
@@ -20570,9 +20550,9 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
+    <row r="14" spans="1:37" s="30" customFormat="1">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -20580,7 +20560,7 @@
       <c r="G14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="12"/>
       <c r="J14" s="34">
         <v>5</v>
@@ -20677,11 +20657,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:37" ht="112">
+      <c r="A15" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>327</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -20699,7 +20679,7 @@
       <c r="G15" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="65" t="s">
         <v>333</v>
       </c>
       <c r="I15" s="12"/>
@@ -20731,9 +20711,9 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -20741,7 +20721,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="62"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34">
         <v>0</v>
@@ -20838,7 +20818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="17"/>
@@ -20876,7 +20856,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="15" t="s">
         <v>274</v>
@@ -20919,7 +20899,7 @@
       <c r="AI18" s="34"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36">
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -20934,122 +20914,122 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36">
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36">
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36">
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36">
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36">
       <c r="AJ24" s="3"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36">
       <c r="AJ26" s="3"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36">
       <c r="AJ28" s="3"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36">
       <c r="AJ30" s="3"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36">
       <c r="AJ32" s="3"/>
     </row>
-    <row r="34" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="36:36">
       <c r="AJ34" s="3"/>
     </row>
-    <row r="36" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="36:36">
       <c r="AJ36" s="3"/>
     </row>
-    <row r="38" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="36:36">
       <c r="AJ38" s="3"/>
     </row>
-    <row r="40" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="36:36">
       <c r="AJ40" s="3"/>
     </row>
-    <row r="42" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="36:36">
       <c r="AJ42" s="3"/>
     </row>
-    <row r="44" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="36:36">
       <c r="AJ44" s="3"/>
     </row>
-    <row r="46" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="36:36">
       <c r="AJ46" s="3"/>
     </row>
-    <row r="48" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="36:36">
       <c r="AJ48" s="3"/>
     </row>
-    <row r="50" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="36:36">
       <c r="AJ50" s="3"/>
     </row>
-    <row r="52" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="36:36">
       <c r="AJ52" s="3"/>
     </row>
-    <row r="54" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="36:36">
       <c r="AJ54" s="3"/>
     </row>
-    <row r="56" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="36:36">
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="36:36">
       <c r="AJ58" s="3"/>
     </row>
-    <row r="60" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="36:36">
       <c r="AJ60" s="3"/>
     </row>
-    <row r="62" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="36:36">
       <c r="AJ62" s="3"/>
     </row>
-    <row r="64" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="36:36">
       <c r="AJ64" s="3"/>
     </row>
-    <row r="66" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="36:36">
       <c r="AJ66" s="3"/>
     </row>
-    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="36:36">
       <c r="AJ68" s="3"/>
     </row>
-    <row r="70" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="36:36">
       <c r="AJ70" s="3"/>
     </row>
-    <row r="72" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="36:36">
       <c r="AJ72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -21066,26 +21046,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" ht="182" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>335</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -21103,7 +21083,7 @@
       <c r="G1" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>373</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -21192,9 +21172,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="30" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -21202,7 +21182,7 @@
       <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="58">
         <v>5</v>
@@ -21299,11 +21279,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" ht="182">
+      <c r="A3" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>346</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -21321,7 +21301,7 @@
       <c r="G3" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H3" s="64"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="12"/>
       <c r="J3" s="34"/>
       <c r="K3" s="28"/>
@@ -21351,9 +21331,9 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="30" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -21361,7 +21341,7 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="12"/>
       <c r="J4" s="34">
         <v>5</v>
@@ -21458,11 +21438,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" ht="216" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>352</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -21480,7 +21460,7 @@
       <c r="G5" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="62" t="s">
         <v>373</v>
       </c>
       <c r="I5" s="12"/>
@@ -21512,9 +21492,9 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37" s="30" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -21522,7 +21502,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="12"/>
       <c r="J6" s="34">
         <v>5</v>
@@ -21619,11 +21599,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:37" ht="168">
+      <c r="A7" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="60" t="s">
         <v>355</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -21641,7 +21621,7 @@
       <c r="G7" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="12"/>
       <c r="J7" s="34"/>
       <c r="K7" s="28"/>
@@ -21671,9 +21651,9 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:37" s="30" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -21681,7 +21661,7 @@
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="12"/>
       <c r="J8" s="34">
         <v>5</v>
@@ -21778,11 +21758,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:37" ht="154" customHeight="1">
+      <c r="A9" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="60" t="s">
         <v>362</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -21800,7 +21780,7 @@
       <c r="G9" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="61" t="s">
         <v>373</v>
       </c>
       <c r="I9" s="12"/>
@@ -21832,9 +21812,9 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:37" s="30" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -21939,11 +21919,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:37" ht="182">
+      <c r="A11" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>368</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -21991,9 +21971,9 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:37" s="30" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -22001,7 +21981,7 @@
       <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="12"/>
       <c r="J12" s="34">
         <v>5</v>
@@ -22098,11 +22078,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:37" ht="98" customHeight="1">
+      <c r="A13" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="67" t="s">
         <v>384</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -22152,9 +22132,9 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
+    <row r="14" spans="1:37">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
@@ -22259,11 +22239,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:37" ht="168">
+      <c r="A15" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="67" t="s">
         <v>383</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -22281,7 +22261,7 @@
       <c r="G15" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="65" t="s">
         <v>381</v>
       </c>
       <c r="I15" s="12"/>
@@ -22313,9 +22293,9 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="72"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="60"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
@@ -22323,7 +22303,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="62"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="12"/>
       <c r="J16" s="34">
         <v>5</v>
@@ -22420,7 +22400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="17"/>
@@ -22458,7 +22438,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="15" t="s">
         <v>274</v>
@@ -22501,7 +22481,7 @@
       <c r="AI18" s="34"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="17"/>
@@ -22524,7 +22504,7 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="17"/>
@@ -22535,7 +22515,7 @@
       <c r="H20" s="20"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="17"/>
@@ -22546,7 +22526,7 @@
       <c r="H21" s="20"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="17"/>
@@ -22557,7 +22537,7 @@
       <c r="H22" s="20"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="17"/>
@@ -22568,7 +22548,7 @@
       <c r="H23" s="19"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="17"/>
@@ -22579,86 +22559,81 @@
       <c r="H24" s="19"/>
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14" customHeight="1"/>
+    <row r="26" spans="1:36">
       <c r="AJ26" s="3"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36">
       <c r="AJ28" s="3"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36">
       <c r="AJ30" s="3"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36">
       <c r="AJ32" s="3"/>
     </row>
-    <row r="34" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="36:36">
       <c r="AJ34" s="3"/>
     </row>
-    <row r="36" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="36:36">
       <c r="AJ36" s="3"/>
     </row>
-    <row r="38" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="36:36">
       <c r="AJ38" s="3"/>
     </row>
-    <row r="40" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="36:36">
       <c r="AJ40" s="3"/>
     </row>
-    <row r="42" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="36:36">
       <c r="AJ42" s="3"/>
     </row>
-    <row r="44" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="36:36">
       <c r="AJ44" s="3"/>
     </row>
-    <row r="46" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="36:36">
       <c r="AJ46" s="3"/>
     </row>
-    <row r="48" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="36:36">
       <c r="AJ48" s="3"/>
     </row>
-    <row r="50" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="36:36">
       <c r="AJ50" s="3"/>
     </row>
-    <row r="52" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="36:36">
       <c r="AJ52" s="3"/>
     </row>
-    <row r="54" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="36:36">
       <c r="AJ54" s="3"/>
     </row>
-    <row r="56" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="36:36">
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="36:36">
       <c r="AJ58" s="3"/>
     </row>
-    <row r="60" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="36:36">
       <c r="AJ60" s="3"/>
     </row>
-    <row r="62" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="36:36">
       <c r="AJ62" s="3"/>
     </row>
-    <row r="64" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="36:36">
       <c r="AJ64" s="3"/>
     </row>
-    <row r="66" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="36:36">
       <c r="AJ66" s="3"/>
     </row>
-    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="36:36">
       <c r="AJ68" s="3"/>
     </row>
-    <row r="70" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="36:36">
       <c r="AJ70" s="3"/>
     </row>
-    <row r="72" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="36:36">
       <c r="AJ72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -22675,10 +22650,15 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -22695,26 +22675,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" ht="182" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>392</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -22732,7 +22712,7 @@
       <c r="G1" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>391</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -22821,9 +22801,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -22831,7 +22811,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="64"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="12"/>
       <c r="J2" s="28">
         <v>5</v>
@@ -22928,11 +22908,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" ht="112">
+      <c r="A3" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -22950,7 +22930,7 @@
       <c r="G3" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="61" t="s">
         <v>399</v>
       </c>
       <c r="I3" s="12"/>
@@ -22982,9 +22962,9 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37" s="30" customFormat="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -22992,7 +22972,7 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="12"/>
       <c r="J4" s="34">
         <v>5</v>
@@ -23089,7 +23069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="14" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="17"/>
@@ -23127,7 +23107,7 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="14" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="15" t="s">
         <v>274</v>
@@ -23170,7 +23150,7 @@
       <c r="AI6" s="34"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="14" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="17"/>
@@ -23193,7 +23173,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="14" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="17"/>
@@ -23204,7 +23184,7 @@
       <c r="H8" s="20"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="14" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="17"/>
@@ -23215,7 +23195,7 @@
       <c r="H9" s="20"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="14" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="17"/>
@@ -23226,7 +23206,7 @@
       <c r="H10" s="20"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="14" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
@@ -23237,7 +23217,7 @@
       <c r="H11" s="19"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="14" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="17"/>
@@ -23248,112 +23228,112 @@
       <c r="H12" s="19"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="14" customHeight="1">
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="36:36">
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="36:36">
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="36:36">
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="36:36">
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="36:36">
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="36:36">
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="36:36">
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="36:36">
       <c r="AJ24" s="3"/>
     </row>
-    <row r="26" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="36:36">
       <c r="AJ26" s="3"/>
     </row>
-    <row r="28" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="36:36">
       <c r="AJ28" s="3"/>
     </row>
-    <row r="30" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="36:36">
       <c r="AJ30" s="3"/>
     </row>
-    <row r="32" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="36:36">
       <c r="AJ32" s="3"/>
     </row>
-    <row r="34" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="36:36">
       <c r="AJ34" s="3"/>
     </row>
-    <row r="36" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="36:36">
       <c r="AJ36" s="3"/>
     </row>
-    <row r="38" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="36:36">
       <c r="AJ38" s="3"/>
     </row>
-    <row r="40" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="36:36">
       <c r="AJ40" s="3"/>
     </row>
-    <row r="42" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="36:36">
       <c r="AJ42" s="3"/>
     </row>
-    <row r="44" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="36:36">
       <c r="AJ44" s="3"/>
     </row>
-    <row r="46" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="36:36">
       <c r="AJ46" s="3"/>
     </row>
-    <row r="48" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="36:36">
       <c r="AJ48" s="3"/>
     </row>
-    <row r="50" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="36:36">
       <c r="AJ50" s="3"/>
     </row>
-    <row r="52" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="36:36">
       <c r="AJ52" s="3"/>
     </row>
-    <row r="54" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="36:36">
       <c r="AJ54" s="3"/>
     </row>
-    <row r="56" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="36:36">
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="36:36">
       <c r="AJ58" s="3"/>
     </row>
-    <row r="60" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="36:36">
       <c r="AJ60" s="3"/>
     </row>
-    <row r="62" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="36:36">
       <c r="AJ62" s="3"/>
     </row>
-    <row r="64" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="36:36">
       <c r="AJ64" s="3"/>
     </row>
-    <row r="66" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="36:36">
       <c r="AJ66" s="3"/>
     </row>
-    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="36:36">
       <c r="AJ68" s="3"/>
     </row>
-    <row r="70" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="36:36">
       <c r="AJ70" s="3"/>
     </row>
-    <row r="72" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="36:36">
       <c r="AJ72" s="3"/>
     </row>
   </sheetData>
@@ -23367,7 +23347,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -23384,13 +23364,13 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="93.5703125" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="93.5" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="26" customFormat="1" ht="12">
       <c r="A1" s="43" t="s">
         <v>427</v>
       </c>
@@ -23404,7 +23384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="26" customFormat="1">
       <c r="A2" t="str">
         <f>PM.1!A51</f>
         <v>PM.1.11.Q1</v>
@@ -23422,7 +23402,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="str">
         <f>PM.1!A15</f>
         <v>PM.1.3.Q2</v>
@@ -23440,7 +23420,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="str">
         <f>PM.2!A7</f>
         <v>PM.2.2.Q3</v>
@@ -23458,7 +23438,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="str">
         <f>PM.2!A9</f>
         <v>PM.2.3.Q1</v>
@@ -23476,7 +23456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="str">
         <f>PM.2!A13</f>
         <v>PM.2.4.Q1</v>
@@ -23494,7 +23474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="str">
         <f>PM.1!A63</f>
         <v>PM.1.13.Q2</v>
@@ -23512,7 +23492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="str">
         <f>PM.2!A11</f>
         <v>PM.2.3.Q2</v>
@@ -23530,7 +23510,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="str">
         <f>PM.1!A67</f>
         <v>PM.1.15.Q1</v>
@@ -23548,7 +23528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="str">
         <f>PM.4!A3</f>
         <v>PM.4.2.Q1</v>
@@ -23566,7 +23546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="str">
         <f>PM.1!A21</f>
         <v>PM.1.5.Q1</v>
@@ -23584,7 +23564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="27" t="str">
         <f>PM.1!A7</f>
         <v>PM.1.1.Q4</v>
@@ -23602,7 +23582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="str">
         <f>PM.1!A9</f>
         <v>PM.1.1.Q5</v>
@@ -23620,7 +23600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="str">
         <f>PM.1!A47</f>
         <v>PM.1.9.Q1</v>
@@ -23638,7 +23618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="str">
         <f>PM.1!A59</f>
         <v>PM.1.12.Q4</v>
@@ -23656,7 +23636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="str">
         <f>PM.2!A5</f>
         <v>PM.2.2.Q2</v>
@@ -23674,7 +23654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="str">
         <f>PM.1!A29</f>
         <v>PM.1.5.Q5</v>
@@ -23692,7 +23672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="str">
         <f>PM.1!A23</f>
         <v>PM.1.5.Q2</v>
@@ -23710,7 +23690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="str">
         <f>PM.1!A25</f>
         <v>PM.1.5.Q3</v>
@@ -23728,7 +23708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="str">
         <f>PM.1!A31</f>
         <v>PM.1.5.Q6</v>
@@ -23746,7 +23726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="str">
         <f>PM.1!A33</f>
         <v>PM.1.6.Q1</v>
@@ -23764,7 +23744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="str">
         <f>PM.3!A9</f>
         <v>PM.3.1.Q5</v>
@@ -23782,7 +23762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="str">
         <f>PM.2!A3</f>
         <v>PM.2.2.Q1</v>
@@ -23800,7 +23780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="str">
         <f>PM.1!A41</f>
         <v>PM.1.7.Q3</v>
@@ -23818,7 +23798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="str">
         <f>PM.1!A65</f>
         <v>PM.1.13.Q3</v>
@@ -23836,7 +23816,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="str">
         <f>PM.3!A1</f>
         <v>PM.3.1.Q1</v>
@@ -23854,7 +23834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="str">
         <f>PM.3!A3</f>
         <v>PM.3.1.Q2</v>
@@ -23872,7 +23852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="str">
         <f>PM.1!A55</f>
         <v>PM.1.12.Q2</v>
@@ -23890,7 +23870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="str">
         <f>PM.3!A15</f>
         <v>PM.3.3.Q1</v>
@@ -23908,7 +23888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="str">
         <f>PM.1!A39</f>
         <v>PM.1.7.Q2</v>
@@ -23926,7 +23906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="str">
         <f>PM.1!A61</f>
         <v>PM.1.13.Q1</v>
@@ -23944,7 +23924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="str">
         <f>PM.3!A5</f>
         <v>PM.3.1.Q3</v>
@@ -23962,7 +23942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="str">
         <f>PM.3!A13</f>
         <v>PM.3.2.Q1</v>
@@ -23980,7 +23960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="str">
         <f>PM.1!A49</f>
         <v>PM.1.10.Q1</v>
@@ -23998,7 +23978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="str">
         <f>PM.1!A57</f>
         <v>PM.1.12.Q3</v>
@@ -24016,7 +23996,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="str">
         <f>PM.1!A3</f>
         <v>PM.1.1.Q2</v>
@@ -24034,7 +24014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="str">
         <f>PM.1!A11</f>
         <v>PM.1.2.Q1</v>
@@ -24052,7 +24032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="str">
         <f>PM.1!A19</f>
         <v>PM.1.4.Q1</v>
@@ -24070,7 +24050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="str">
         <f>PM.1!A45</f>
         <v>PM.1.8.Q2</v>
@@ -24088,7 +24068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="str">
         <f>PM.3!A11</f>
         <v>PM.3.1.Q6</v>
@@ -24106,7 +24086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="str">
         <f>PM.1!A27</f>
         <v>PM.1.5.Q4</v>
@@ -24124,7 +24104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="str">
         <f>PM.1!A1</f>
         <v>PM.1.1.Q1</v>
@@ -24142,7 +24122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="str">
         <f>PM.1!A37</f>
         <v>PM.1.7.Q1</v>
@@ -24160,7 +24140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="str">
         <f>PM.1!A43</f>
         <v>PM.1.8.Q1</v>
@@ -24178,7 +24158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="str">
         <f>PM.1!A17</f>
         <v>PM.1.3.Q3</v>
@@ -24196,7 +24176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="str">
         <f>PM.4!A1</f>
         <v>PM.4.1.Q1</v>
@@ -24214,7 +24194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="str">
         <f>PM.2!A1</f>
         <v>PM.2.1.Q1</v>
@@ -24232,7 +24212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="str">
         <f>PM.3!A7</f>
         <v>PM.3.1.Q4</v>
@@ -24250,7 +24230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="str">
         <f>PM.1!A53</f>
         <v>PM.1.12.Q1</v>
@@ -24268,7 +24248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="str">
         <f>PM.2!A15</f>
         <v>PM.2.5.Q1</v>
@@ -24286,7 +24266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="str">
         <f>PM.1!A13</f>
         <v>PM.1.3.Q1</v>
@@ -24304,7 +24284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="str">
         <f>PM.1!A69</f>
         <v>PM.1.16.Q1</v>
@@ -24322,7 +24302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="str">
         <f>PM.1!A35</f>
         <v>PM.1.6.Q2</v>
@@ -24340,7 +24320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="str">
         <f>PM.1!A5</f>
         <v>PM.1.1.Q3</v>
@@ -24380,26 +24360,26 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="13" customWidth="1"/>
-    <col min="10" max="21" width="5.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="13" customWidth="1"/>
+    <col min="10" max="21" width="5.1640625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
+    <col min="24" max="35" width="5.1640625" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" customWidth="1"/>
+    <col min="37" max="37" width="6.83203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:37" ht="182" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>429</v>
       </c>
       <c r="C1" s="40" t="s">
@@ -24417,7 +24397,7 @@
       <c r="G1" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="61" t="s">
         <v>439</v>
       </c>
       <c r="I1" s="36" t="s">
@@ -24506,9 +24486,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:37" s="30" customFormat="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -24613,11 +24593,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:37" ht="140">
+      <c r="A3" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>436</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -24665,9 +24645,9 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:37">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -24772,11 +24752,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:37" ht="182" customHeight="1">
+      <c r="A5" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>443</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -24826,9 +24806,9 @@
       <c r="AI5" s="51"/>
       <c r="AJ5" s="53"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:37">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -24933,7 +24913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="14" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="17"/>
@@ -24971,7 +24951,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="14" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="15" t="s">
         <v>274</v>
@@ -25014,7 +24994,7 @@
       <c r="AI8" s="34"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="14" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="17"/>
@@ -25037,7 +25017,7 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="14" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="17"/>
@@ -25048,7 +25028,7 @@
       <c r="H10" s="20"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="14" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
@@ -25059,7 +25039,7 @@
       <c r="H11" s="20"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="14" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="17"/>
@@ -25070,7 +25050,7 @@
       <c r="H12" s="20"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="14" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="17"/>
@@ -25081,7 +25061,7 @@
       <c r="H13" s="19"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="14" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="17"/>
@@ -25092,112 +25072,112 @@
       <c r="H14" s="19"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="14" customHeight="1">
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="36:36">
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="36:36">
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="36:36">
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="36:36">
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="36:36">
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="36:36">
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="36:36">
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="36:36">
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="36:36">
       <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="36:36">
       <c r="AJ26" s="3"/>
     </row>
-    <row r="28" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="36:36">
       <c r="AJ28" s="3"/>
     </row>
-    <row r="30" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="36:36">
       <c r="AJ30" s="3"/>
     </row>
-    <row r="32" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="36:36">
       <c r="AJ32" s="3"/>
     </row>
-    <row r="34" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="36:36">
       <c r="AJ34" s="3"/>
     </row>
-    <row r="36" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="36:36">
       <c r="AJ36" s="3"/>
     </row>
-    <row r="38" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="36:36">
       <c r="AJ38" s="3"/>
     </row>
-    <row r="40" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="36:36">
       <c r="AJ40" s="3"/>
     </row>
-    <row r="42" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="36:36">
       <c r="AJ42" s="3"/>
     </row>
-    <row r="44" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="36:36">
       <c r="AJ44" s="3"/>
     </row>
-    <row r="46" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="36:36">
       <c r="AJ46" s="3"/>
     </row>
-    <row r="48" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="36:36">
       <c r="AJ48" s="3"/>
     </row>
-    <row r="50" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="36:36">
       <c r="AJ50" s="3"/>
     </row>
-    <row r="52" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="36:36">
       <c r="AJ52" s="3"/>
     </row>
-    <row r="54" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="36:36">
       <c r="AJ54" s="3"/>
     </row>
-    <row r="56" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="36:36">
       <c r="AJ56" s="3"/>
     </row>
-    <row r="58" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="36:36">
       <c r="AJ58" s="3"/>
     </row>
-    <row r="60" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="36:36">
       <c r="AJ60" s="3"/>
     </row>
-    <row r="62" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="36:36">
       <c r="AJ62" s="3"/>
     </row>
-    <row r="64" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="36:36">
       <c r="AJ64" s="3"/>
     </row>
-    <row r="66" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="36:36">
       <c r="AJ66" s="3"/>
     </row>
-    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="36:36">
       <c r="AJ68" s="3"/>
     </row>
-    <row r="70" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="36:36">
       <c r="AJ70" s="3"/>
     </row>
-    <row r="72" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="36:36">
       <c r="AJ72" s="3"/>
     </row>
-    <row r="74" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="36:36">
       <c r="AJ74" s="3"/>
     </row>
   </sheetData>
@@ -25212,10 +25192,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
